--- a/test-output/Output Files/HotWheels_Updated.xlsx
+++ b/test-output/Output Files/HotWheels_Updated.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="160">
   <si>
     <t xml:space="preserve">Problem Statement: </t>
   </si>
@@ -3812,8 +3812,12 @@
       <c r="H51" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
+      <c r="I51" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>159</v>
+      </c>
       <c r="K51" s="4"/>
       <c r="L51" s="15"/>
       <c r="M51" s="33"/>
@@ -3831,8 +3835,12 @@
       <c r="H52" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
+      <c r="I52" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="J52" s="20" t="s">
+        <v>159</v>
+      </c>
       <c r="K52" s="26"/>
       <c r="L52" s="20"/>
       <c r="M52" s="30"/>
@@ -3850,8 +3858,12 @@
       <c r="H53" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
+      <c r="I53" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="J53" s="20" t="s">
+        <v>159</v>
+      </c>
       <c r="K53" s="26"/>
       <c r="L53" s="20"/>
       <c r="M53" s="30"/>
@@ -3869,8 +3881,12 @@
       <c r="H54" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
+      <c r="I54" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="J54" s="22" t="s">
+        <v>159</v>
+      </c>
       <c r="K54" s="28"/>
       <c r="L54" s="22"/>
       <c r="M54" s="31"/>
@@ -4691,12 +4707,8 @@
       <c r="H97" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="I97" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J97" s="4" t="s">
-        <v>159</v>
-      </c>
+      <c r="I97" s="15"/>
+      <c r="J97" s="4"/>
       <c r="K97" s="15"/>
       <c r="L97" s="4"/>
       <c r="M97" s="15"/>
@@ -4714,12 +4726,8 @@
       <c r="H98" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="I98" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="J98" s="26" t="s">
-        <v>159</v>
-      </c>
+      <c r="I98" s="20"/>
+      <c r="J98" s="26"/>
       <c r="K98" s="20"/>
       <c r="L98" s="26"/>
       <c r="M98" s="20"/>
@@ -4737,12 +4745,8 @@
       <c r="H99" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I99" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="J99" s="10" t="s">
-        <v>159</v>
-      </c>
+      <c r="I99" s="18"/>
+      <c r="J99" s="10"/>
       <c r="K99" s="18"/>
       <c r="L99" s="10"/>
       <c r="M99" s="18"/>
@@ -4760,12 +4764,8 @@
       <c r="H100" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="I100" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="J100" s="10" t="s">
-        <v>159</v>
-      </c>
+      <c r="I100" s="18"/>
+      <c r="J100" s="10"/>
       <c r="K100" s="18"/>
       <c r="L100" s="10"/>
       <c r="M100" s="18"/>
@@ -4783,12 +4783,8 @@
       <c r="H101" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="I101" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="J101" s="26" t="s">
-        <v>159</v>
-      </c>
+      <c r="I101" s="20"/>
+      <c r="J101" s="26"/>
       <c r="K101" s="20"/>
       <c r="L101" s="26"/>
       <c r="M101" s="20"/>
@@ -4806,12 +4802,8 @@
       <c r="H102" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="I102" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="J102" s="10" t="s">
-        <v>159</v>
-      </c>
+      <c r="I102" s="18"/>
+      <c r="J102" s="10"/>
       <c r="K102" s="18"/>
       <c r="L102" s="10"/>
       <c r="M102" s="18"/>
@@ -4829,12 +4821,8 @@
       <c r="H103" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="I103" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="J103" s="28" t="s">
-        <v>159</v>
-      </c>
+      <c r="I103" s="22"/>
+      <c r="J103" s="28"/>
       <c r="K103" s="22"/>
       <c r="L103" s="28"/>
       <c r="M103" s="22"/>

--- a/test-output/Output Files/HotWheels_Updated.xlsx
+++ b/test-output/Output Files/HotWheels_Updated.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="160">
   <si>
     <t xml:space="preserve">Problem Statement: </t>
   </si>
@@ -3382,8 +3382,12 @@
       <c r="H28" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="I28" s="15"/>
-      <c r="J28" s="4"/>
+      <c r="I28" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="K28" s="15"/>
       <c r="L28" s="4"/>
       <c r="M28" s="15"/>
@@ -3401,8 +3405,12 @@
       <c r="H29" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="I29" s="45"/>
-      <c r="J29" s="26"/>
+      <c r="I29" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="J29" s="26" t="s">
+        <v>159</v>
+      </c>
       <c r="K29" s="20"/>
       <c r="L29" s="26"/>
       <c r="M29" s="20"/>
@@ -3420,8 +3428,12 @@
       <c r="H30" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="I30" s="46"/>
-      <c r="J30" s="10"/>
+      <c r="I30" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>159</v>
+      </c>
       <c r="K30" s="18"/>
       <c r="L30" s="10"/>
       <c r="M30" s="18"/>
@@ -3439,8 +3451,12 @@
       <c r="H31" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="I31" s="20"/>
-      <c r="J31" s="26"/>
+      <c r="I31" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>159</v>
+      </c>
       <c r="K31" s="20"/>
       <c r="L31" s="26"/>
       <c r="M31" s="20"/>
@@ -3458,8 +3474,12 @@
       <c r="H32" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="28"/>
+      <c r="I32" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="J32" s="28" t="s">
+        <v>159</v>
+      </c>
       <c r="K32" s="22"/>
       <c r="L32" s="28"/>
       <c r="M32" s="22"/>
@@ -3812,12 +3832,8 @@
       <c r="H51" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="I51" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J51" s="15" t="s">
-        <v>159</v>
-      </c>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
       <c r="K51" s="4"/>
       <c r="L51" s="15"/>
       <c r="M51" s="33"/>
@@ -3835,12 +3851,8 @@
       <c r="H52" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="I52" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="J52" s="20" t="s">
-        <v>159</v>
-      </c>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
       <c r="K52" s="26"/>
       <c r="L52" s="20"/>
       <c r="M52" s="30"/>
@@ -3858,12 +3870,8 @@
       <c r="H53" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I53" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="J53" s="20" t="s">
-        <v>159</v>
-      </c>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
       <c r="K53" s="26"/>
       <c r="L53" s="20"/>
       <c r="M53" s="30"/>
@@ -3881,12 +3889,8 @@
       <c r="H54" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="I54" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="J54" s="22" t="s">
-        <v>159</v>
-      </c>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
       <c r="K54" s="28"/>
       <c r="L54" s="22"/>
       <c r="M54" s="31"/>

--- a/test-output/Output Files/HotWheels_Updated.xlsx
+++ b/test-output/Output Files/HotWheels_Updated.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="160">
   <si>
     <t xml:space="preserve">Problem Statement: </t>
   </si>
@@ -3180,8 +3180,12 @@
       <c r="H18" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="4"/>
+      <c r="I18" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="K18" s="15"/>
       <c r="L18" s="4"/>
       <c r="M18" s="15"/>
@@ -3199,8 +3203,12 @@
       <c r="H19" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="26"/>
+      <c r="I19" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>159</v>
+      </c>
       <c r="K19" s="20"/>
       <c r="L19" s="26"/>
       <c r="M19" s="20"/>
@@ -3382,12 +3390,8 @@
       <c r="H28" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="I28" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>159</v>
-      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="15"/>
       <c r="L28" s="4"/>
       <c r="M28" s="15"/>
@@ -3405,12 +3409,8 @@
       <c r="H29" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="I29" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="J29" s="26" t="s">
-        <v>159</v>
-      </c>
+      <c r="I29" s="45"/>
+      <c r="J29" s="26"/>
       <c r="K29" s="20"/>
       <c r="L29" s="26"/>
       <c r="M29" s="20"/>
@@ -3428,12 +3428,8 @@
       <c r="H30" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="I30" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>159</v>
-      </c>
+      <c r="I30" s="46"/>
+      <c r="J30" s="10"/>
       <c r="K30" s="18"/>
       <c r="L30" s="10"/>
       <c r="M30" s="18"/>
@@ -3451,12 +3447,8 @@
       <c r="H31" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="I31" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="J31" s="26" t="s">
-        <v>159</v>
-      </c>
+      <c r="I31" s="20"/>
+      <c r="J31" s="26"/>
       <c r="K31" s="20"/>
       <c r="L31" s="26"/>
       <c r="M31" s="20"/>
@@ -3474,12 +3466,8 @@
       <c r="H32" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="I32" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="J32" s="28" t="s">
-        <v>159</v>
-      </c>
+      <c r="I32" s="22"/>
+      <c r="J32" s="28"/>
       <c r="K32" s="22"/>
       <c r="L32" s="28"/>
       <c r="M32" s="22"/>

--- a/test-output/Output Files/HotWheels_Updated.xlsx
+++ b/test-output/Output Files/HotWheels_Updated.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="161">
   <si>
     <t xml:space="preserve">Problem Statement: </t>
   </si>
@@ -550,6 +550,9 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -3180,12 +3183,8 @@
       <c r="H18" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>159</v>
-      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="15"/>
       <c r="L18" s="4"/>
       <c r="M18" s="15"/>
@@ -3203,12 +3202,8 @@
       <c r="H19" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="J19" s="26" t="s">
-        <v>159</v>
-      </c>
+      <c r="I19" s="20"/>
+      <c r="J19" s="26"/>
       <c r="K19" s="20"/>
       <c r="L19" s="26"/>
       <c r="M19" s="20"/>
@@ -3719,8 +3714,12 @@
       <c r="H46" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="I46" s="15"/>
-      <c r="J46" s="4"/>
+      <c r="I46" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="K46" s="15"/>
       <c r="L46" s="4"/>
       <c r="M46" s="15"/>
@@ -3738,8 +3737,12 @@
       <c r="H47" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="I47" s="20"/>
-      <c r="J47" s="26"/>
+      <c r="I47" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="J47" s="26" t="s">
+        <v>160</v>
+      </c>
       <c r="K47" s="20"/>
       <c r="L47" s="26"/>
       <c r="M47" s="20"/>
@@ -3757,8 +3760,12 @@
       <c r="H48" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="I48" s="18"/>
-      <c r="J48" s="10"/>
+      <c r="I48" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>159</v>
+      </c>
       <c r="K48" s="18"/>
       <c r="L48" s="10"/>
       <c r="M48" s="18"/>

--- a/test-output/Output Files/HotWheels_Updated.xlsx
+++ b/test-output/Output Files/HotWheels_Updated.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="160">
   <si>
     <t xml:space="preserve">Problem Statement: </t>
   </si>
@@ -550,9 +550,6 @@
   </si>
   <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -3063,8 +3060,12 @@
       <c r="H12" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="K12" s="15"/>
       <c r="L12" s="4"/>
       <c r="M12" s="15"/>
@@ -3082,8 +3083,12 @@
       <c r="H13" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="26"/>
+      <c r="I13" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>159</v>
+      </c>
       <c r="K13" s="20"/>
       <c r="L13" s="26"/>
       <c r="M13" s="20"/>
@@ -3101,8 +3106,12 @@
       <c r="H14" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="26"/>
+      <c r="I14" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>159</v>
+      </c>
       <c r="K14" s="20"/>
       <c r="L14" s="26"/>
       <c r="M14" s="20"/>
@@ -3120,8 +3129,12 @@
       <c r="H15" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="26"/>
+      <c r="I15" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>159</v>
+      </c>
       <c r="K15" s="20"/>
       <c r="L15" s="26"/>
       <c r="M15" s="20"/>
@@ -3139,8 +3152,12 @@
       <c r="H16" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="26"/>
+      <c r="I16" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>159</v>
+      </c>
       <c r="K16" s="20"/>
       <c r="L16" s="30"/>
       <c r="M16" s="18"/>
@@ -3158,8 +3175,12 @@
       <c r="H17" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="28"/>
+      <c r="I17" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>159</v>
+      </c>
       <c r="K17" s="22"/>
       <c r="L17" s="28"/>
       <c r="M17" s="27"/>
@@ -3714,12 +3735,8 @@
       <c r="H46" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="I46" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>160</v>
-      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="4"/>
       <c r="K46" s="15"/>
       <c r="L46" s="4"/>
       <c r="M46" s="15"/>
@@ -3737,12 +3754,8 @@
       <c r="H47" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="I47" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="J47" s="26" t="s">
-        <v>160</v>
-      </c>
+      <c r="I47" s="20"/>
+      <c r="J47" s="26"/>
       <c r="K47" s="20"/>
       <c r="L47" s="26"/>
       <c r="M47" s="20"/>
@@ -3760,12 +3773,8 @@
       <c r="H48" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="I48" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>159</v>
-      </c>
+      <c r="I48" s="18"/>
+      <c r="J48" s="10"/>
       <c r="K48" s="18"/>
       <c r="L48" s="10"/>
       <c r="M48" s="18"/>
